--- a/results/yq_test/graph_cz/Rb2Re4/cz_2q_graphstate_indep_qiskit_27.qasm_rb2_archsize6_mini_dis.xlsx
+++ b/results/yq_test/graph_cz/Rb2Re4/cz_2q_graphstate_indep_qiskit_27.qasm_rb2_archsize6_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0137941837310791</v>
+        <v>0.0004389286041259766</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004143238067626953</v>
+        <v>0.00038909912109375</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003550052642822266</v>
+        <v>0.006654024124145508</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (3, 0), (4, 0), (0, 2), (4, 1), (1, 2), (1, 3), (4, 3), (4, 2), (5, 2), (2, 0), (2, 1), (0, 3), (0, 4), (1, 1), (1, 5), (0, 5), (2, 3), (2, 5), (2, 4), (3, 3), (1, 0), (1, 4), (3, 1), (3, 2), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [3, 0], [4, 0], [0, 2], [4, 1], [1, 2], [1, 3], [4, 3], [4, 2], [5, 2], [2, 0], [2, 1], [0, 3], [0, 4], [1, 1], [1, 5], [0, 5], [2, 3], [2, 5], [2, 4], [3, 3], [1, 0], [1, 4], [3, 1], [3, 2], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -513,11 +513,6 @@
           <t>[0, 1]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>[16, 19]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -551,11 +546,6 @@
           <t>[0, 4]</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[5, 10]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -565,7 +555,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[13, 14]</t>
+          <t>[16, 19]</t>
         </is>
       </c>
     </row>
@@ -619,200 +609,222 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[4, 15]</t>
+          <t>[5, 10]</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[13, 14]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[18, 19]</t>
+          <t>[4, 15]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[17, 23]</t>
+          <t>[18, 19]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[17, 23]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[14, 20]</t>
+          <t>[8, 10]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[15, 22]</t>
+          <t>[14, 20]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[20, 21]</t>
+          <t>[15, 22]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[21, 24]</t>
+          <t>[20, 21]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[24, 25]</t>
+          <t>[21, 24]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[25, 26]</t>
+          <t>[24, 25]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.8733540679620196</v>
+          <t>[25, 26]</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t_idle:</t>
+          <t>Fidelity:</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>113.4</v>
+        <v>0.8733509238930344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>t_idle:</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>118.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0298612117767334</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.01551508903503418</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
